--- a/bert_entity/preprocessing/dbpedia_dummy.xlsx
+++ b/bert_entity/preprocessing/dbpedia_dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E509D-E990-3042-893A-22BC97614AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A61F341-D5FE-D84D-A212-9004E604D4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{009E8782-58DB-524E-83ED-9DA35833D900}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>http://dbpedia.org/page/Steve_Jobs</t>
-  </si>
-  <si>
     <t>Steve Jobs</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Elon Musk</t>
   </si>
   <si>
-    <t>http://dbpedia.org/page/Elon_Musk</t>
-  </si>
-  <si>
     <t>Elon Reeve Musk (/ˈiːlɒn ˈmʌsk/; born June 28, 1971) is a South African-born Canadian-American business magnate, investor, engineer and inventor. He is the founder, CEO, and CTO of SpaceX; co-founder, CEO, and product architect of Tesla Motors; co-founder and chairman of SolarCity; co-chairman of OpenAI; co-founder of Zip2; and founder of X.com which merged with PayPal of Confinity. As of June 2016, he has an estimated net worth of US$12.7 billion, making him the 83rd wealthiest person in the world. Musk has stated that the goals of SolarCity, Tesla Motors, and SpaceX revolve around his vision to change the world and humanity. His goals include reducing global warming through sustainable energy production and consumption, and reducing the "risk of human extinction" by "making life multiplanetary" by setting up a human colony on Mars. In addition to his primary business pursuits, he has also envisioned a high-speed transportation system known as the Hyperloop, and has proposed a VTOL supersonic jet aircraft with electric fan propulsion, known as the Musk electric jet. </t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>William Henry "Bill" Gates III (born October 28, 1955) is an American business magnate, investor, author and philanthropist. In 1975, Gates and Paul Allen co-founded Microsoft, which became the world's largest PC software company. During his career at Microsoft, Gates held the positions of chairman, CEO and chief software architect, and was the largest individual shareholder until May 2014. Gates has authored and co-authored several books. Starting in 1987, Gates was included in the Forbes list of the world's wealthiest people and was the wealthiest from 1995 to 2007, again in 2009, and has been since 2014. Between 2009 and 2014, his wealth doubled from US$40 billion to more than US$82 billion. Between 2013 and 2014, his wealth increased by US$15 billion. Gates is currently the wealthiest person in the world with an estimated net worth of US$81.7 billion as of October 2016. Gates is one of the best-known entrepreneurs of the personal computer revolution. Gates has been criticized for his business tactics, which have been considered anti-competitive, an opinion that has in some cases been upheld by numerous court rulings. Later in his career Gates pursued a number of philanthropic endeavors, donating large amounts of money to various charitable organizations and scientific research programs through the Bill &amp; Melinda Gates Foundation, established in 2000. Gates stepped down as chief executive officer of Microsoft in January 2000. He remained as chairman and created the position of chief software architect for himself. In June 2006, Gates announced that he would be transitioning from full-time work at Microsoft to part-time work, and full-time work at the Bill &amp; Melinda Gates Foundation. He gradually transferred his duties to Ray Ozzie (chief software architect) and Craig Mundie (chief research and strategy officer). Ozzie later left the company. Gates' last full-time day at Microsoft was June 27, 2008. He stepped down as chairman of Microsoft, in February 2014, taking on a new post as technology adviser to support newly appointed CEO Satya Nadella.</t>
   </si>
   <si>
-    <t>http://dbpedia.org/page/Bill_Gates</t>
-  </si>
-  <si>
     <t>Reed_College, San_Francisco, Apple_Inc., The_Walt_Disney_Company, Lisa_Brennan-Jobs, Respiratory_arrest, Pancreatic_cancer, Palo_Alto,_California, Homestead_High_School_(Cupertino,_California), Microcomputer_revolution, Steve_Jobs__1, Apple_Inc., NeXT, Pixar, Chrisann_Brennan</t>
   </si>
   <si>
@@ -84,13 +75,94 @@
   </si>
   <si>
     <t>internal_links</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Andreas_Ekberg</t>
+  </si>
+  <si>
+    <t>Andreas Ekberg</t>
+  </si>
+  <si>
+    <t>Andreas Ekberg (born 2 January 1985) is a Swedish football referee. Ekberg currently resides in Malmö. He has been a full international referee for FIFA since 2013. He became a professional referee in 2004 and has been an Allsvenskan referee since 2009. Ekberg has refereed 74 matches in Allsvenskan, 55 matches in Superettan and 14 international matches as of 2014.</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Danilo_Tognon</t>
+  </si>
+  <si>
+    <t>Danilo Tognon</t>
+  </si>
+  <si>
+    <t>The Canoeist Danilo Tognon (born October 9, 1937) is an Italian sprint canoer who competed in the early 1960s. He was eliminated in the semifinals of the C-1 1000 m event at the 1960 Summer Olympics in Rome(the capital of Italy).</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Megan_Lawrence</t>
+  </si>
+  <si>
+    <t>Megan Lawrence</t>
+  </si>
+  <si>
+    <t>Megan Lawrence (born 1972) is an American actress best known for her roles on Broadway. Among other honors, she has been nominated for a Tony Award. She has also appeared Off-Broadway, in regional theatre and on television.</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Peter_Ceffons</t>
+  </si>
+  <si>
+    <t>Peter Ceffons</t>
+  </si>
+  <si>
+    <t>Peter Ceffons (French: Pierre Ceffons, Latin: Petrus de Ceffons Clarevallensis; fl.1340s) was a French Cistercian theologian and scholastic philosopher, who became Abbot of Clairvaux. He is considered an early humanist for his style. He lectured on the Sentences at Paris in the late 1340s, using angle as a metaphor. He was influenced by Adam Wodeham, Gregory of Rimini and John of Mirecourt. He wrote a satirical work Epistola Luciferi ad Cleros, an attack on the secular clergy; it is dated to 1352.</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Strength_athlete</t>
+  </si>
+  <si>
+    <t>Strength athlete</t>
+  </si>
+  <si>
+    <t>A strength athlete is a person who trains for or competes in events in which muscular strength and power play a primary role. Such events include weightlifting and powerlifting, strength athletics and strongman competitions, and arm wrestling, as well as the "heavy throws" of track and field: shotput, discus, and hammer. The players at certain positions in other sports are also considered strength athletes, including linemen in American football and forwards in rugby football. The term is also sometimes used to refer to any athlete who participates in regular strength training or weight training, including bodybuilders.</t>
+  </si>
+  <si>
+    <t>Swedish, Allsvenskan, FIFA, football_referee, Malmö</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian, sprint_canoer, </t>
+  </si>
+  <si>
+    <t>American, Broadway, regional theatre</t>
+  </si>
+  <si>
+    <t>scholastic_philosopher, Adam_Wodeham, John_of_Mirecourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscular_strength, weightlifting, powerlifting, strongman_competitions </t>
+  </si>
+  <si>
+    <t>Angela Dorothea Merkel (née Kasner; born 17 July 1954) is a German stateswoman and former research scientist. Merkel has been the Chancellor of Germany since 2005, and the leader of the Christian Democratic Union (CDU) since 2000. Having earned a doctorate as a physical chemist, Merkel entered politics in the wake of the Revolutions of 1989, briefly serving as a deputy spokesperson for the first democratically-elected East German Government in 1990. Following German reunification in 1990, Merkel was elected to the Bundestag for Stralsund-Nordvorpommern-Rügen in the state of Mecklenburg-Vorpommern, a seat she has held ever since. Merkel was later appointed as the Minister for Women and Youth in 1991 under Chancellor Helmut Kohl, later becoming the Minister for the Environment in 1994. After Kohl was defeated in 1998, Merkel was elected Secretary-General of the CDU before becoming the party's first woman leader two years later in the aftermath of a donations scandal that toppled Wolfgang Schäuble. Following the 2005 federal election, Merkel was appointed Germany's first woman Chancellor at the head of a grand coalition consisting of the CDU, its Bavarian sister party, the Christian Social Union (CSU), and the Social Democratic Party of Germany (SPD). In the 2009 federal election, the CDU obtained the largest share of the vote and Merkel was able to form a coalition government with the support of the Free Democratic Party (FDP). At the 2013 federal election, Merkel won a landslide victory with 41.5% of the vote, falling just short of an overall majority, and formed a second grand coalition with the SPD, after the FDP lost all of its representation in the Bundestag. In 2007, Merkel was President of the European Council and chaired the G8, the second woman to do so. Merkel played a central role in the negotiation of the Treaty of Lisbon and the Berlin Declaration. One of Merkel's priorities was also to strengthen transatlantic economic relations by signing the agreement for the Transatlantic Economic Council on 30 April 2007. It has been said that Merkel played a crucial role in managing the financial crisis at the European and international level, and has been referred to as "the decider." In domestic policy, health care reform and problems concerning future energy development have been major issues during her Chancellorship, and more recently her government's approach to the ongoing refugee crisis. Merkel has been described as the de facto leader of the European Union. Merkel appeared on the Forbes Magazine's List of The World's Most Powerful People as the world's second most powerful person, selected by Forbes magazine in 2012 and 2015. In December 2015, Merkel was named as Time magazine's Person of the Year, with the magazine's cover declaring her to be the "Chancellor of the Free World." On 26 March 2014, Merkel became the longest-serving incumbent head of government in the European Union. Merkel is currently the senior G7 leader. In May 2016, Merkel was named the most powerful woman in the world for a record tenth time by Forbes.</t>
+  </si>
+  <si>
+    <t>Leipzig_University, Hamburg, Lutheranism, Barmbek-Nord, Chancellor_of_Germany, German_order_of_precedence, Germany, Bundeswehr, Christian_Democratic_Union_(Germany)</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Angela_Merkel</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Bill_Gates</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Elon_Musk</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/resource/Steve_Jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,8 +184,23 @@
       <name val="Calibri (Textkörper)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -139,12 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -460,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F1907-F6C8-9F4A-9818-B0AB6B9C4BC8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -471,72 +560,174 @@
     <col min="1" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="5">
+        <v>7412236</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="5">
+        <v>909036</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="5">
+        <v>3747</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="5">
+        <v>38616368</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="3">
-        <v>7412236</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="3">
-        <v>909036</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="3">
-        <v>3747</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="5">
+        <v>24188476</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1">
+      <c r="A7" s="5">
+        <v>35710429</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
+      <c r="A8" s="5">
+        <v>16131521</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1">
+      <c r="A9" s="5">
+        <v>15112360</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="5">
+        <v>72671</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -544,6 +735,13 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9F0E20CB-899C-A441-A052-A0117A0F3818}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A1FCC987-2CDF-AD47-BBD2-394BA33EA8AE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{498E3C37-B37A-CC43-B20E-41E1481BFEDE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9AC099DB-BDBD-2C4A-B996-2220C921867D}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1C85D394-6296-044A-B280-8A149E641654}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{235F9032-E522-6F49-BAC1-8BD571C2FE24}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9E2534B5-725B-DF43-B25D-21A7B7DCD68C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{671CC10C-6C71-184B-9D53-CBCC8739448A}"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://dbpedia.org/resource/Leipzig_University" xr:uid="{FFD06217-BCCB-4B44-A0FC-14D386D98E3D}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{80BEB16A-77B4-554C-BDA8-5081DA2FC066}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
